--- a/Documentation and Planning/Risk Management.xlsx
+++ b/Documentation and Planning/Risk Management.xlsx
@@ -128,9 +128,9 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -149,6 +149,29 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="11"/>
       <color theme="0"/>
       <name val="Calibri"/>
@@ -156,17 +179,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -178,16 +195,15 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
       <color rgb="FFFFFFFF"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -195,6 +211,21 @@
     </font>
     <font>
       <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFA7D00"/>
       <name val="Calibri"/>
       <charset val="0"/>
@@ -202,76 +233,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
       <color rgb="FF9C0006"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="18"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -284,6 +246,44 @@
       <charset val="134"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
   <fills count="33">
     <fill>
@@ -306,13 +306,121 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -330,31 +438,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -372,109 +468,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="6" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -507,6 +507,15 @@
       <right/>
       <top/>
       <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
         <color theme="4"/>
       </bottom>
       <diagonal/>
@@ -527,15 +536,6 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -547,6 +547,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -576,21 +585,12 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,130 +608,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="10" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="21" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="16" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="16" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="7" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -801,7 +801,7 @@
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" id="1" name="Table1" displayName="Table1" ref="A1:G28" totalsRowShown="0">
   <autoFilter ref="A1:G28"/>
-  <sortState ref="A2:G28">
+  <sortState ref="A1:G28">
     <sortCondition ref="E2:E28" descending="1"/>
   </sortState>
   <tableColumns count="7">
@@ -1078,7 +1078,7 @@
   <dimension ref="A1:G8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="N14" sqref="N14"/>
+      <selection activeCell="C9" sqref="C9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1123,14 +1123,14 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
-        <f>C2*D2/100</f>
-        <v>10</v>
+        <f t="shared" ref="E2:E8" si="0">C2*D2/100</f>
+        <v>6</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1147,14 +1147,14 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>100</v>
+        <v>60</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
-        <f>C3*D3/100</f>
-        <v>10</v>
+        <f t="shared" si="0"/>
+        <v>6</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -1177,7 +1177,7 @@
         <v>6</v>
       </c>
       <c r="E4">
-        <f>C4*D4/100</f>
+        <f t="shared" si="0"/>
         <v>4.8</v>
       </c>
       <c r="F4" t="s">
@@ -1195,14 +1195,14 @@
         <v>18</v>
       </c>
       <c r="C5">
-        <v>100</v>
+        <v>70</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
-        <f>C5*D5/100</f>
-        <v>4</v>
+        <f t="shared" si="0"/>
+        <v>2.8</v>
       </c>
       <c r="F5" t="s">
         <v>19</v>
@@ -1219,14 +1219,14 @@
         <v>21</v>
       </c>
       <c r="C6">
-        <v>100</v>
+        <v>50</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
-        <f>C6*D6/100</f>
-        <v>2</v>
+        <f t="shared" si="0"/>
+        <v>1</v>
       </c>
       <c r="F6" s="1" t="s">
         <v>22</v>
@@ -1249,7 +1249,7 @@
         <v>10</v>
       </c>
       <c r="E7">
-        <f>C7*D7/100</f>
+        <f t="shared" si="0"/>
         <v>2</v>
       </c>
       <c r="F7" t="s">
@@ -1267,14 +1267,14 @@
         <v>28</v>
       </c>
       <c r="C8">
-        <v>100</v>
+        <v>80</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
-        <f>C8*D8/100</f>
-        <v>1</v>
+        <f t="shared" si="0"/>
+        <v>0.8</v>
       </c>
       <c r="F8" t="s">
         <v>29</v>

--- a/Documentation and Planning/Risk Management.xlsx
+++ b/Documentation and Planning/Risk Management.xlsx
@@ -51,7 +51,7 @@
 work concentrate</t>
   </si>
   <si>
-    <t>together</t>
+    <t>Sara</t>
   </si>
   <si>
     <t>long requirements
@@ -76,6 +76,9 @@
     <t>find work around</t>
   </si>
   <si>
+    <t>Lior</t>
+  </si>
+  <si>
     <t>Staff size and 
 experience</t>
   </si>
@@ -97,6 +100,9 @@
 use another tool</t>
   </si>
   <si>
+    <t>Damian</t>
+  </si>
+  <si>
     <t>development environment</t>
   </si>
   <si>
@@ -107,9 +113,6 @@
     <t>fix it</t>
   </si>
   <si>
-    <t>Damian</t>
-  </si>
-  <si>
     <t>Deficit in performance ability of software</t>
   </si>
   <si>
@@ -117,9 +120,6 @@
   </si>
   <si>
     <t>buy new Hardware</t>
-  </si>
-  <si>
-    <t>Lior</t>
   </si>
 </sst>
 </file>
@@ -127,10 +127,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="42" formatCode="_-&quot;£&quot;* #,##0_-;\-&quot;£&quot;* #,##0_-;_-&quot;£&quot;* &quot;-&quot;_-;_-@_-"/>
     <numFmt numFmtId="44" formatCode="_-&quot;£&quot;* #,##0.00_-;\-&quot;£&quot;* #,##0.00_-;_-&quot;£&quot;* &quot;-&quot;??_-;_-@_-"/>
-    <numFmt numFmtId="43" formatCode="_-* #,##0.00_-;\-* #,##0.00_-;_-* &quot;-&quot;??_-;_-@_-"/>
   </numFmts>
   <fonts count="20">
     <font>
@@ -141,9 +141,76 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FF3F3F3F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -152,6 +219,21 @@
       <u/>
       <sz val="11"/>
       <color rgb="FF0000FF"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="Calibri"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -165,61 +247,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color rgb="FFFF0000"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="Calibri"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -227,13 +257,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FFFA7D00"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -248,30 +271,7 @@
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FF3F3F3F"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="Calibri"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
+      <color rgb="FF9C0006"/>
       <name val="Calibri"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -294,187 +294,187 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor rgb="FFFFFFCC"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFC7CE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -485,21 +485,6 @@
       <right/>
       <top/>
       <bottom/>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
-      </bottom>
       <diagonal/>
     </border>
     <border>
@@ -536,6 +521,17 @@
       <diagonal/>
     </border>
     <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -547,15 +543,6 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -575,13 +562,26 @@
       <diagonal/>
     </border>
     <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
-      <top style="thin">
-        <color theme="4"/>
-      </top>
+      <top/>
       <bottom style="double">
-        <color theme="4"/>
+        <color rgb="FFFF8001"/>
       </bottom>
       <diagonal/>
     </border>
@@ -590,7 +590,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="2" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -608,130 +608,130 @@
     <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="9" fillId="10" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="2" borderId="1" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="3" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="21" borderId="7" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="1" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="12" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="28" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="28" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="9" fillId="11" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="15" borderId="6" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="15" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="8" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="4" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
@@ -1077,8 +1077,8 @@
   <sheetPr/>
   <dimension ref="A1:G8"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C9" sqref="C9"/>
+    <sheetView tabSelected="1" zoomScale="160" zoomScaleNormal="160" workbookViewId="0">
+      <selection activeCell="G6" sqref="G6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.88888888888889" defaultRowHeight="14.4" outlineLevelRow="7" outlineLevelCol="6"/>
@@ -1123,14 +1123,14 @@
         <v>8</v>
       </c>
       <c r="C2">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D2">
         <v>10</v>
       </c>
       <c r="E2">
         <f t="shared" ref="E2:E8" si="0">C2*D2/100</f>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F2" s="1" t="s">
         <v>9</v>
@@ -1147,14 +1147,14 @@
         <v>12</v>
       </c>
       <c r="C3">
-        <v>60</v>
+        <v>30</v>
       </c>
       <c r="D3">
         <v>10</v>
       </c>
       <c r="E3">
         <f t="shared" si="0"/>
-        <v>6</v>
+        <v>3</v>
       </c>
       <c r="F3" s="1" t="s">
         <v>13</v>
@@ -1171,41 +1171,41 @@
         <v>15</v>
       </c>
       <c r="C4">
-        <v>80</v>
+        <v>60</v>
       </c>
       <c r="D4">
         <v>6</v>
       </c>
       <c r="E4">
         <f t="shared" si="0"/>
-        <v>4.8</v>
+        <v>3.6</v>
       </c>
       <c r="F4" t="s">
         <v>16</v>
       </c>
       <c r="G4" t="s">
-        <v>10</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" ht="28.8" spans="1:7">
       <c r="A5" s="1" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
-        <v>18</v>
+        <v>19</v>
       </c>
       <c r="C5">
-        <v>70</v>
+        <v>50</v>
       </c>
       <c r="D5">
         <v>4</v>
       </c>
       <c r="E5">
         <f t="shared" si="0"/>
-        <v>2.8</v>
+        <v>2</v>
       </c>
       <c r="F5" t="s">
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="G5" t="s">
         <v>10</v>
@@ -1213,34 +1213,34 @@
     </row>
     <row r="6" ht="28.8" spans="1:7">
       <c r="A6" s="1" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="C6">
-        <v>50</v>
+        <v>40</v>
       </c>
       <c r="D6">
         <v>2</v>
       </c>
       <c r="E6">
         <f t="shared" si="0"/>
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="F6" s="1" t="s">
-        <v>22</v>
+        <v>23</v>
       </c>
       <c r="G6" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
     </row>
     <row r="7" ht="28.8" spans="1:7">
       <c r="A7" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>24</v>
+        <v>26</v>
       </c>
       <c r="C7">
         <v>20</v>
@@ -1253,34 +1253,34 @@
         <v>2</v>
       </c>
       <c r="F7" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="G7" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
     </row>
     <row r="8" ht="28.8" spans="1:7">
       <c r="A8" s="1" t="s">
-        <v>27</v>
+        <v>28</v>
       </c>
       <c r="B8" t="s">
-        <v>28</v>
+        <v>29</v>
       </c>
       <c r="C8">
-        <v>80</v>
+        <v>70</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8">
         <f t="shared" si="0"/>
-        <v>0.8</v>
+        <v>0.7</v>
       </c>
       <c r="F8" t="s">
-        <v>29</v>
+        <v>30</v>
       </c>
       <c r="G8" t="s">
-        <v>30</v>
+        <v>17</v>
       </c>
     </row>
   </sheetData>
